--- a/finetuning/it_datasets/qa_dataset/qa_it_ezzouhour_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_ezzouhour_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -659,12 +664,53 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for a great cafe, check out Ezzouhour. Located at PGXF+X8H Ezzouhour, P15, Maial Bal Abbas, this top-rated destination is perfect for cafe lovers. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 37.177283, 33.223278.</t>
+          <t>**Ezzouhour | Ezzouhour, P15, Maial Bal Abbas**
+Nestled in the heart of Ezzouhour, this charming cafe offers a tranquil haven for locals and visitors alike. With its cozy ambiance and friendly staff, it's the perfect spot to relax with a cup of coffee or indulge in delectable culinary treats.
+Ezzouhour boasts an impressive rating of 4.7 stars, a testament to its exceptional offerings and impeccable service. As you explore this beloved cafe, be sure to savor the flavors of its signature dishes and immerse yourself in the vibrant atmosphere. Located at (37.177283, 33.223278), Ezzouhour is easily accessible and ready to welcome you for an unforgettable culinary experience.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe (4.7) with precise GPS coordinates (37.177283, 33.223278) in Ezzouhour?</t>
+          <t>Day Plan:
+Morning: Exploring Cafe ezzouhour for breakfast and coffee.
+Mid-Morning: Visiting Gare ferroviaire Ezzouhour to learn about the local train system.
+Midday: Trying local cuisine at Buona Pesca Fishes Shop.
+Afternoon: Enjoying scenic views at PIZZA YO.
+Evening: Shopping at Station RFR Ezzouhour 2.
+Night: Relaxing with a traditional Tunisian massage at a local spa.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe ezzouhour is located in ezzouhour, Tunisia and is a Cafe with a 5.0 rating. It's located at the coordinates (36.7932205, 10.1401796).
+MIKA is an ice cream store located in Cite Ezzouhour, Tunisia. The store offers a variety of ice cream flavors and toppings, and is open 24 hours a day. MIKA has received positive reviews from customers, who praise the quality of the ice cream and the friendly service. The store is located at the coordinates (35.1638567, 8.8327558).
+**Buona Pesca Fishes Shop** is a popular fish and chips restaurant, located in the heart of Ezzouhour, known for its extensive selection of fresh seafood and delicious dishes. Situated at coordinates (36.7932205, 10.1401796), the restaurant offers a wide variety of seafood options, including grilled, fried, and steamed fish. Its convenient location and friendly atmosphere make it a popular destination for locals and tourists alike.
+PIZZA YO is a Pizzeria located in Rue Ezzouhour, Tunisia, offering a wide range of pizzas to satisfy your cravings. With a perfect 5.0 rating based on 4 reviews, it has become a favorite spot among locals and visitors alike. Its exact location is at (36.7932205, 10.1401796) and can be easily found on Google Maps by its place_id: ChIJE8hTXPfL4hIRJB5tuMzGuhQ.
+Gare ferroviaire Ezzouhour is a train station located in Ezzouhour, Tunisia. It has a rating of 4.0 out of 2 reviews. It is a main category of train station. It offers train services. It is located at coordinates (-27.4190244, 153.0254209) and has an address of Gare ferroviaire Ezzouhour, 4031.
+Station RFR Ezzouhour 2 is a transportation service located in ezzouhour, Tunisia. It is open 24 hours a day and offers a variety of services, including train transportation. The station is located at (51.594978437327, 4.782896218337).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -766,12 +812,51 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for a top-rated cafe, check out Cafe ezzouhour located at M9C3+RQ Cafe ezzouhour, Al-Zar At. This must-visit spot offers a range of cafe options to choose from. With a rating of 5.0, it's a great choice for those who love cafes. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.7932205, 10.1401796.</t>
+          <t>Cafe ezzouhour is located in ezzouhour, Tunisia and is a Cafe with a 5.0 rating. It's located at the coordinates (36.7932205, 10.1401796).</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a 5.0 rating in the ezzouhour area?</t>
+          <t>Day Plan:
+Morning: Explore Cafe ezzouhour in ezzouhour for a cup of coffee and enjoy the lively atmosphere.
+Mid-Morning: Visit MIKA ice cream store to cool down with a refreshing and delicious treat.
+Midday: Satisfy your seafood cravings at Buona Pesca Fishes Shop, savoring the fresh and delectable dishes.
+Afternoon: Head over to PIZZA YO for a delicious and authentic pizza experience, highly rated by locals.
+Evening: Explore Gare ferroviaire Ezzouhour for its historical significance and marvel at its architectural grandeur.
+Night: Indulge in a relaxing and rejuvenating experience at Station RFR Ezzouhour 2, enjoying its comfortable ambiance and pristine facilities.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe ezzouhour is located in ezzouhour, Tunisia and is a Cafe with a 5.0 rating. It's located at the coordinates (36.7932205, 10.1401796).
+MIKA is an ice cream store located in Cite Ezzouhour, Tunisia. The store offers a variety of ice cream flavors and toppings, and is open 24 hours a day. MIKA has received positive reviews from customers, who praise the quality of the ice cream and the friendly service. The store is located at the coordinates (35.1638567, 8.8327558).
+**Buona Pesca Fishes Shop** is a popular fish and chips restaurant, located in the heart of Ezzouhour, known for its extensive selection of fresh seafood and delicious dishes. Situated at coordinates (36.7932205, 10.1401796), the restaurant offers a wide variety of seafood options, including grilled, fried, and steamed fish. Its convenient location and friendly atmosphere make it a popular destination for locals and tourists alike.
+PIZZA YO is a Pizzeria located in Rue Ezzouhour, Tunisia, offering a wide range of pizzas to satisfy your cravings. With a perfect 5.0 rating based on 4 reviews, it has become a favorite spot among locals and visitors alike. Its exact location is at (36.7932205, 10.1401796) and can be easily found on Google Maps by its place_id: ChIJE8hTXPfL4hIRJB5tuMzGuhQ.
+Gare ferroviaire Ezzouhour is a railway station located in Ezzouhour, Tunisia. It offers rail services to various destinations in the country and provides a convenient transportation option for both locals and visitors. The station is situated at coordinates (-27.4190244, 153.0254209) and is rated 4.0 based on reviews from travelers.
+Located in the heart of Ezzouhour, Station RFR Ezzouhour 2 offers reliable and convenient transportation services. With a 4.8-star rating, it prides itself on its punctual and efficient operations. Situated at coordinates (51.594978437327, 4.782896218337), the station operates 24 hours a day, providing flexibility and accessibility for travelers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -873,12 +958,53 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for a delicious treat, check out MIKA located at 75 C37, Cite Ezzouhour. This top-rated spot is a must-visit for ice cream lovers and has a rating of 5.0. It's open 24 hours a day. For more details, visit their website at https://www.google.com/maps/place/MIKA/data=!4m7!3m6!1s0x12fd33b11a28792f:0xaf8c4cefb3cb378f!8m2!3d36.7885478!4d10.1249792!16s%2Fg%2F11t7l03z20!19sChIJL3koGrEz_RIRjzfLs-9MjK8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>MIKA is an ice cream store located in Cite Ezzouhour, Tunisia. The store offers a variety of ice cream flavors and toppings, and is open 24 hours a day. MIKA has received positive reviews from customers, who praise the quality of the ice cream and the friendly service. The store is located at the coordinates (35.1638567, 8.8327558).</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where in ezzouhour can you find a top-rated ice cream spot with a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Exploring Gare ferroviaire Ezzouhour, a railway station offering ticketing and baggage handling services.
+Mid-Morning: Trying local cuisine at Buona Pesca Fishes Shop, a popular fish and chips restaurant known for its fresh seafood.
+Midday: Visiting Ezzouhour, a charming cafe with a cozy ambiance and friendly staff, perfect for relaxation and culinary treats.
+Afternoon: Enjoying scenic views at MIKA, an ice cream store offering various flavors and toppings 24/7.
+Evening: Participating in an event or activity at Station RFR Ezzouhour 2, a transportation service open 24 hours a day.
+Night: Shopping at PIZZA YO, a pizzeria offering a wide range of pizzas with a perfect rating based on customer reviews.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Ezzouhour | Ezzouhour, P15, Maial Bal Abbas**
+Nestled in the heart of Ezzouhour, this charming cafe offers a tranquil haven for locals and visitors alike. With its cozy ambiance and friendly staff, it's the perfect spot to relax with a cup of coffee or indulge in delectable culinary treats.
+Ezzouhour boasts an impressive rating of 4.7 stars, a testament to its exceptional offerings and impeccable service. As you explore this beloved cafe, be sure to savor the flavors of its signature dishes and immerse yourself in the vibrant atmosphere. Located at (37.177283, 33.223278), Ezzouhour is easily accessible and ready to welcome you for an unforgettable culinary experience.
+MIKA is an ice cream store located in Cite Ezzouhour, Tunisia. The store offers a variety of ice cream flavors and toppings, and is open 24 hours a day. MIKA has received positive reviews from customers, who praise the quality of the ice cream and the friendly service. The store is located at the coordinates (35.1638567, 8.8327558).
+**Buona Pesca Fishes Shop** is a popular fish and chips restaurant, located in the heart of Ezzouhour, known for its extensive selection of fresh seafood and delicious dishes. Situated at coordinates (36.7932205, 10.1401796), the restaurant offers a wide variety of seafood options, including grilled, fried, and steamed fish. Its convenient location and friendly atmosphere make it a popular destination for locals and tourists alike.
+PIZZA YO is a Pizzeria located in Rue Ezzouhour, Tunisia, offering a wide range of pizzas to satisfy your cravings. With a perfect 5.0 rating based on 4 reviews, it has become a favorite spot among locals and visitors alike. Its exact location is at (36.7932205, 10.1401796) and can be easily found on Google Maps by its place_id: ChIJE8hTXPfL4hIRJB5tuMzGuhQ.
+Gare ferroviaire Ezzouhour is a railway station located in ezzouhour, Tunisia. It offers a variety of services to its passengers, including ticketing, baggage handling, and food and beverage options. The station is also conveniently located near several major attractions, such as the Medina of Tunis and the Carthage archaeological site. Visitors to the station will find a clean and well-maintained facility with friendly and helpful staff. The station is also easily accessible by public transportation, making it a convenient option for travelers of all types.
+Station RFR Ezzouhour 2 is a transportation service located in ezzouhour, Tunisia. It is open 24 hours a day and offers a variety of services, including train transportation. The station is located at (51.594978437327, 4.782896218337).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -980,14 +1106,51 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for a delicious meal, check out Buona Pesca Fishes Shop located at Rue Ezzouhour. 
-This top-rated destination is perfect for Restaurant de fish and chips lovers and offers a range of Restaurant de fish and chips to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7932205, 10.1401796. For more details, visit their website at https://www.google.com/maps/place/Buona+Pesca+Fishes+Shop/data=!4m7!3m6!1s0x12e2cb681e1be6b5:0x6006250d072faa54!8m2!3d36.8809803!4d10.1826887!16s%2Fg%2F11g8wcr7qh!19sChIJteYbHmjL4hIRVKovBw0lBmA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 90 160 472.</t>
+          <t>**Buona Pesca Fishes Shop** is a popular fish and chips restaurant, located in the heart of Ezzouhour, known for its extensive selection of fresh seafood and delicious dishes. Situated at coordinates (36.7932205, 10.1401796), the restaurant offers a wide variety of seafood options, including grilled, fried, and steamed fish. Its convenient location and friendly atmosphere make it a popular destination for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where can you find Buona Pesca Fishes Shop, a highly-rated destination for seafood enthusiasts in ezzouhour?</t>
+          <t>Day Plan:
+Morning: Explore the historical streets of the Medina of Tunis.
+Mid-Morning: Try local cuisine at Cafe ezzouhour, known for its authentic Tunisian dishes.
+Midday: Visit the Carthage archaeological site to witness ancient ruins and stunning panoramic views.
+Afternoon: Relax with a traditional hammam experience at a local spa.
+Evening: Indulge in a delectable dinner of fresh seafood at Buona Pesca Fishes Shop.
+Night: Experience the vibrant nightlife of Rue Ezzouhour, where you can explore local markets, enjoy live music, and savor delicious street food.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe ezzouhour is located in ezzouhour, Tunisia and is a Cafe with a 5.0 rating. It's located at the coordinates (36.7932205, 10.1401796).
+MIKA is an ice cream store located in Cite Ezzouhour, Tunisia. The store offers a variety of ice cream flavors and toppings, and is open 24 hours a day. MIKA has received positive reviews from customers, who praise the quality of the ice cream and the friendly service. The store is located at the coordinates (35.1638567, 8.8327558).
+**Buona Pesca Fishes Shop** is a popular fish and chips restaurant, located in the heart of Ezzouhour, known for its extensive selection of fresh seafood and delicious dishes. Situated at coordinates (36.7932205, 10.1401796), the restaurant offers a wide variety of seafood options, including grilled, fried, and steamed fish. Its convenient location and friendly atmosphere make it a popular destination for locals and tourists alike.
+PIZZA YO is a Pizzeria located in Rue Ezzouhour, Tunisia, offering a wide range of pizzas to satisfy your cravings. With a perfect 5.0 rating based on 4 reviews, it has become a favorite spot among locals and visitors alike. Its exact location is at (36.7932205, 10.1401796) and can be easily found on Google Maps by its place_id: ChIJE8hTXPfL4hIRJB5tuMzGuhQ.
+Gare ferroviaire Ezzouhour is a railway station located in ezzouhour, Tunisia. It offers a variety of services to its passengers, including ticketing, baggage handling, and food and beverage options. The station is also conveniently located near several major attractions, such as the Medina of Tunis and the Carthage archaeological site. Visitors to the station will find a clean and well-maintained facility with friendly and helpful staff. The station is also easily accessible by public transportation, making it a convenient option for travelers of all types.
+Station RFR Ezzouhour 2 is a transportation service located in ezzouhour (coordinates: 51.594978437327, 4.782896218337). Open 24/7, this highly rated (4.8/5 based on 5 reviews) establishment offers various transportation services. For more information, visit their website at http://rfr.tn/.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1089,14 +1252,59 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for something fun to do, check out PIZZA YO located at Rue Ezzouhour. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.7932205, 10.1401796. For more details, call them at 98 432 898.</t>
+          <t>PIZZA YO is a Pizzeria located in Rue Ezzouhour, Tunisia, offering a wide range of pizzas to satisfy your cravings. With a perfect 5.0 rating based on 4 reviews, it has become a favorite spot among locals and visitors alike. Its exact location is at (36.7932205, 10.1401796) and can be easily found on Google Maps by its place_id: ChIJE8hTXPfL4hIRJB5tuMzGuhQ.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Pizzeria destination with a 5.0 rating in the Ezzouhour district?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the charming **Ezzouhour** neighborhood, immersing yourself in its vibrant atmosphere and local flavor.
+**Mid-Morning:**
+* Visit **Buona Pesca Fishes Shop** for a delightful seafood lunch, savoring the freshest catch of the day.
+**Midday:**
+* Take a guided tour of **Gare ferroviaire Ezzouhour**, learning about its historical significance and the bustling train operations.
+**Afternoon:**
+* Engage in a relaxing spa session at **Hotel Ezzouhour**, rejuvenating your body and mind.
+**Evening:**
+* Enjoy a delightful dinner at **PIZZA YO**, indulging in the flavorsome creations of their renowned pizzeria.
+**Night:**
+* Experience the cultural richness of **MIKA** by savoring their delectable ice cream flavors and chatting with friendly locals.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Ezzouhour | Ezzouhour, P15, Maial Bal Abbas**
+Nestled in the heart of Ezzouhour, this charming cafe offers a tranquil haven for locals and visitors alike. With its cozy ambiance and friendly staff, it's the perfect spot to relax with a cup of coffee or indulge in delectable culinary treats.
+Ezzouhour boasts an impressive rating of 4.7 stars, a testament to its exceptional offerings and impeccable service. As you explore this beloved cafe, be sure to savor the flavors of its signature dishes and immerse yourself in the vibrant atmosphere. Located at (37.177283, 33.223278), Ezzouhour is easily accessible and ready to welcome you for an unforgettable culinary experience.
+MIKA is an ice cream store located in Cite Ezzouhour, Tunisia. The store offers a variety of ice cream flavors and toppings, and is open 24 hours a day. MIKA has received positive reviews from customers, who praise the quality of the ice cream and the friendly service. The store is located at the coordinates (35.1638567, 8.8327558).
+**Buona Pesca Fishes Shop** is a popular fish and chips restaurant, located in the heart of Ezzouhour, known for its extensive selection of fresh seafood and delicious dishes. Situated at coordinates (36.7932205, 10.1401796), the restaurant offers a wide variety of seafood options, including grilled, fried, and steamed fish. Its convenient location and friendly atmosphere make it a popular destination for locals and tourists alike.
+PIZZA YO is a Pizzeria located in Rue Ezzouhour, Tunisia, offering a wide range of pizzas to satisfy your cravings. With a perfect 5.0 rating based on 4 reviews, it has become a favorite spot among locals and visitors alike. Its exact location is at (36.7932205, 10.1401796) and can be easily found on Google Maps by its place_id: ChIJE8hTXPfL4hIRJB5tuMzGuhQ.
+Gare ferroviaire Ezzouhour is a railway station located in ezzouhour, Tunisia. It offers a variety of services to its passengers, including ticketing, baggage handling, and food and beverage options. The station is also conveniently located near several major attractions, such as the Medina of Tunis and the Carthage archaeological site. Visitors to the station will find a clean and well-maintained facility with friendly and helpful staff. The station is also easily accessible by public transportation, making it a convenient option for travelers of all types.
+Station RFR Ezzouhour 2 is a transportation service located in ezzouhour (coordinates: 51.594978437327, 4.782896218337). Open 24/7, this highly rated (4.8/5 based on 5 reviews) establishment offers various transportation services. For more information, visit their website at http://rfr.tn/.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1190,12 +1398,51 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you happen to be in ezzouhour and looking for a transportation destination, Gare ferroviaire Ezzouhour is the perfect place for you. Located at Gare ferroviaire Ezzouhour, 4031, this highly-rated location is a popular spot for Gare enthusiasts. With a rating of 4.0, it is a spot that's not to be missed. This destination is open and available at these hours: workday_timing , but is closed on closed_on . For specific information, visit their website at website or call them at phone .</t>
+          <t>Gare ferroviaire Ezzouhour is a train station located in Ezzouhour, Tunisia. It has a rating of 4.0 out of 2 reviews. It is a main category of train station. It offers train services. It is located at coordinates (-27.4190244, 153.0254209) and has an address of Gare ferroviaire Ezzouhour, 4031.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Which highly-rated transportation hub with a rating of 4.0 is located at Gare ferroviaire Ezzouhour, 4031, and caters to Gare enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore **Buona Pesca Fishes Shop** for an authentic seafood breakfast.
+Mid-Morning: Visit **Gare ferroviaire Ezzouhour** for a cultural immersion and a glimpse into the local train system.
+Midday: Try local cuisine at **PIZZA YO** for a delicious lunch and enjoy the cozy ambiance.
+Afternoon: Relax and unwind with a traditional spa treatment at a local spa or hotel.
+Evening: Attend an event or activity at **Station RFR Ezzouhour 2**, offering various transportation services and cultural experiences.
+Night: Enjoy the vibrant atmosphere and scenic views at **Cafe ezzouhour** while sipping on local coffee or tea.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe ezzouhour is located in ezzouhour, Tunisia and is a Cafe with a 5.0 rating. It's located at the coordinates (36.7932205, 10.1401796).
+MIKA is an ice cream store located in Cite Ezzouhour, Tunisia. The store offers a variety of ice cream flavors and toppings, and is open 24 hours a day. MIKA has received positive reviews from customers, who praise the quality of the ice cream and the friendly service. The store is located at the coordinates (35.1638567, 8.8327558).
+**Buona Pesca Fishes Shop** is a popular fish and chips restaurant, located in the heart of Ezzouhour, known for its extensive selection of fresh seafood and delicious dishes. Situated at coordinates (36.7932205, 10.1401796), the restaurant offers a wide variety of seafood options, including grilled, fried, and steamed fish. Its convenient location and friendly atmosphere make it a popular destination for locals and tourists alike.
+PIZZA YO is a Pizzeria located in Rue Ezzouhour, Tunisia, offering a wide range of pizzas to satisfy your cravings. With a perfect 5.0 rating based on 4 reviews, it has become a favorite spot among locals and visitors alike. Its exact location is at (36.7932205, 10.1401796) and can be easily found on Google Maps by its place_id: ChIJE8hTXPfL4hIRJB5tuMzGuhQ.
+Gare ferroviaire Ezzouhour is a train station located in Ezzouhour, Tunisia. It has a rating of 4.0 out of 2 reviews. It is a main category of train station. It offers train services. It is located at coordinates (-27.4190244, 153.0254209) and has an address of Gare ferroviaire Ezzouhour, 4031.
+Station RFR Ezzouhour 2 is a transportation service located in ezzouhour (coordinates: 51.594978437327, 4.782896218337). Open 24/7, this highly rated (4.8/5 based on 5 reviews) establishment offers various transportation services. For more information, visit their website at http://rfr.tn/.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1301,12 +1548,53 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for a reliable transportation service, check out Station RFR Ezzouhour 2. Located at Station Train, 2, this top-rated destination is your go-to spot for all your transportation needs. With a rating of 4.8, it's a must-visit spot for travelers and locals alike. It's open 24/7, so you can always count on them for convenient and efficient transportation. To get there, use these GPS coordinates: 51.594978437327, 4.782896218337. For more details, visit their website at http://rfr.tn/.</t>
+          <t>Located in the heart of Ezzouhour, Station RFR Ezzouhour 2 offers reliable and convenient transportation services. With a 4.8-star rating, it prides itself on its punctual and efficient operations. Situated at coordinates (51.594978437327, 4.782896218337), the station operates 24 hours a day, providing flexibility and accessibility for travelers.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated transportation service open 24/7 in Ezzouhour, complete with GPS coordinates for easy navigation?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant streets of Ezzouhour, discovering hidden gems and immersing yourself in local life.
+Mid-Morning: Indulge in a delightful brunch at Ezzouhour | Ezzouhour, savoring the flavors of traditional Tunisian cuisine.
+Midday: Visit Buona Pesca Fishes Shop for a delectable seafood lunch, relishing the freshest catches of the day.
+Afternoon: Enjoy a leisurely stroll through Rue Ezzouhour, browsing local shops and uncovering unique souvenirs.
+Evening: Savor a delectable dinner at PIZZA YO, tantalizing your taste buds with authentic Italian pizzas.
+Night: Relax and unwind at MIKA, indulging in a sweet treat of ice cream while immersing yourself in the city's lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Ezzouhour | Ezzouhour, P15, Maial Bal Abbas**
+Nestled in the heart of Ezzouhour, this charming cafe offers a tranquil haven for locals and visitors alike. With its cozy ambiance and friendly staff, it's the perfect spot to relax with a cup of coffee or indulge in delectable culinary treats.
+Ezzouhour boasts an impressive rating of 4.7 stars, a testament to its exceptional offerings and impeccable service. As you explore this beloved cafe, be sure to savor the flavors of its signature dishes and immerse yourself in the vibrant atmosphere. Located at (37.177283, 33.223278), Ezzouhour is easily accessible and ready to welcome you for an unforgettable culinary experience.
+MIKA is an ice cream store located in Cite Ezzouhour, Tunisia. The store offers a variety of ice cream flavors and toppings, and is open 24 hours a day. MIKA has received positive reviews from customers, who praise the quality of the ice cream and the friendly service. The store is located at the coordinates (35.1638567, 8.8327558).
+**Buona Pesca Fishes Shop** is a popular fish and chips restaurant, located in the heart of Ezzouhour, known for its extensive selection of fresh seafood and delicious dishes. Situated at coordinates (36.7932205, 10.1401796), the restaurant offers a wide variety of seafood options, including grilled, fried, and steamed fish. Its convenient location and friendly atmosphere make it a popular destination for locals and tourists alike.
+PIZZA YO is a Pizzeria located in Rue Ezzouhour, Tunisia, offering a wide range of pizzas to satisfy your cravings. With a perfect 5.0 rating based on 4 reviews, it has become a favorite spot among locals and visitors alike. Its exact location is at (36.7932205, 10.1401796) and can be easily found on Google Maps by its place_id: ChIJE8hTXPfL4hIRJB5tuMzGuhQ.
+Gare ferroviaire Ezzouhour is a train station located in Ezzouhour, Tunisia. It has a rating of 4.0 out of 2 reviews. It is a main category of train station. It offers train services. It is located at coordinates (-27.4190244, 153.0254209) and has an address of Gare ferroviaire Ezzouhour, 4031.
+Station RFR Ezzouhour 2 is a highly rated (4.8/5) transport service located in ezzouhour, Tunisia. It offers 24/7 accessibility and is conveniently positioned at coordinates (51.594978437327, 4.782896218337).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1400,12 +1688,53 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for a top-rated Gare destination, head to Gare ferroviaire Ezzouhour located at Gare ferroviaire Ezzouhour, 4031. With a rating of 4.0, this Gare spot is a must-visit. To get there, use these GPS coordinates: -27.4190244, 153.0254209. For more details, visit their website at https://www.google.com/maps/place/Gare+ferroviaire+Ezzouhour/data=!4m7!3m6!1s0x12fdf5275aa00e07:0xbacd3ba9d25bbaca!8m2!3d35.7806736!4d10.575242!16s%2Fg%2F1tj93n6g!19sChIJBw6gWif1_RIRyrpb0qk7zbo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Gare ferroviaire Ezzouhour is a railway station located in ezzouhour, Tunisia. It offers a variety of services to its passengers, including ticketing, baggage handling, and food and beverage options. The station is also conveniently located near several major attractions, such as the Medina of Tunis and the Carthage archaeological site. Visitors to the station will find a clean and well-maintained facility with friendly and helpful staff. The station is also easily accessible by public transportation, making it a convenient option for travelers of all types.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find the top-rated Gare destination with a 4.0 rating in Ezzouhour?</t>
+          <t>Day Plan:
+Morning: Enjoy scenic views at Ezzouhour
+Mid-Morning: Try local cuisine at Buona Pesca Fishes Shop
+Midday: Visit Gare ferroviaire Ezzouhour for a guided tour
+Afternoon: Shop at PIZZA YO for souvenirs
+Evening: Participate in an event at Station RFR Ezzouhour 2
+Night: Relax with a soothing massage at a spa</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Ezzouhour | Ezzouhour, P15, Maial Bal Abbas**
+Nestled in the heart of Ezzouhour, this charming cafe offers a tranquil haven for locals and visitors alike. With its cozy ambiance and friendly staff, it's the perfect spot to relax with a cup of coffee or indulge in delectable culinary treats.
+Ezzouhour boasts an impressive rating of 4.7 stars, a testament to its exceptional offerings and impeccable service. As you explore this beloved cafe, be sure to savor the flavors of its signature dishes and immerse yourself in the vibrant atmosphere. Located at (37.177283, 33.223278), Ezzouhour is easily accessible and ready to welcome you for an unforgettable culinary experience.
+MIKA is an ice cream store located in Cite Ezzouhour, Tunisia. The store offers a variety of ice cream flavors and toppings, and is open 24 hours a day. MIKA has received positive reviews from customers, who praise the quality of the ice cream and the friendly service. The store is located at the coordinates (35.1638567, 8.8327558).
+**Buona Pesca Fishes Shop** is a popular fish and chips restaurant, located in the heart of Ezzouhour, known for its extensive selection of fresh seafood and delicious dishes. Situated at coordinates (36.7932205, 10.1401796), the restaurant offers a wide variety of seafood options, including grilled, fried, and steamed fish. Its convenient location and friendly atmosphere make it a popular destination for locals and tourists alike.
+PIZZA YO is a Pizzeria located in Rue Ezzouhour, Tunisia, offering a wide range of pizzas to satisfy your cravings. With a perfect 5.0 rating based on 4 reviews, it has become a favorite spot among locals and visitors alike. Its exact location is at (36.7932205, 10.1401796) and can be easily found on Google Maps by its place_id: ChIJE8hTXPfL4hIRJB5tuMzGuhQ.
+Gare ferroviaire Ezzouhour is a railway station located in ezzouhour, Tunisia. It offers a variety of services to its passengers, including ticketing, baggage handling, and food and beverage options. The station is also conveniently located near several major attractions, such as the Medina of Tunis and the Carthage archaeological site. Visitors to the station will find a clean and well-maintained facility with friendly and helpful staff. The station is also easily accessible by public transportation, making it a convenient option for travelers of all types.
+Station RFR Ezzouhour 2 is a transportation service located in ezzouhour, Tunisia. It is open 24 hours a day and offers a variety of services, including train transportation. The station is located at (51.594978437327, 4.782896218337).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1511,12 +1840,51 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for a reliable transportation service, Station RFR Ezzouhour 2 located at Station Train, 2 is the place to go. This top-rated destination is perfect for commuters and travelers alike. With a rating of 4.8, it's a must-visit spot for transportation needs. It's open 24 hours a day, making it convenient for any schedule. For more details, visit their website at http://rfr.tn/.</t>
+          <t>Station RFR Ezzouhour 2 is a transportation service located in ezzouhour (coordinates: 51.594978437327, 4.782896218337). Open 24/7, this highly rated (4.8/5 based on 5 reviews) establishment offers various transportation services. For more information, visit their website at http://rfr.tn/.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>What is the name of the highly-rated transportation service located in Ezzouhour with a unique feature making it stand out from others?</t>
+          <t>Day Plan:
+Morning: Explore the Medina of Tunis, a UNESCO World Heritage Site, and immerse yourself in the vibrant culture of Tunisia.
+Mid-Morning: Visit the Carthage archaeological site, the ancient ruins of a once-powerful city-state, and marvel at the well-preserved remains.
+Midday: Relish a traditional Tunisian lunch at Buona Pesca Fishes Shop, savoring the fresh seafood and delectable dishes.
+Afternoon: Enjoy a scenic stroll along the Corniche, a picturesque seaside promenade, and admire the stunning ocean views.
+Evening: Embark on a guided tour of the Kasbah of Tunis, a historic fortress that served as the center of Ottoman rule in Tunisia, and delve into its fascinating history.
+Night: Engage in outdoor activities at Parc du Belvedere, a sprawling urban park, and unwind amidst its serene gardens and tranquil atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe ezzouhour is located in ezzouhour, Tunisia and is a Cafe with a 5.0 rating. It's located at the coordinates (36.7932205, 10.1401796).
+MIKA is an ice cream store located in Cite Ezzouhour, Tunisia. The store offers a variety of ice cream flavors and toppings, and is open 24 hours a day. MIKA has received positive reviews from customers, who praise the quality of the ice cream and the friendly service. The store is located at the coordinates (35.1638567, 8.8327558).
+**Buona Pesca Fishes Shop** is a popular fish and chips restaurant, located in the heart of Ezzouhour, known for its extensive selection of fresh seafood and delicious dishes. Situated at coordinates (36.7932205, 10.1401796), the restaurant offers a wide variety of seafood options, including grilled, fried, and steamed fish. Its convenient location and friendly atmosphere make it a popular destination for locals and tourists alike.
+PIZZA YO is a Pizzeria located in Rue Ezzouhour, Tunisia, offering a wide range of pizzas to satisfy your cravings. With a perfect 5.0 rating based on 4 reviews, it has become a favorite spot among locals and visitors alike. Its exact location is at (36.7932205, 10.1401796) and can be easily found on Google Maps by its place_id: ChIJE8hTXPfL4hIRJB5tuMzGuhQ.
+Gare ferroviaire Ezzouhour is a railway station located in ezzouhour, Tunisia. It offers a variety of services to its passengers, including ticketing, baggage handling, and food and beverage options. The station is also conveniently located near several major attractions, such as the Medina of Tunis and the Carthage archaeological site. Visitors to the station will find a clean and well-maintained facility with friendly and helpful staff. The station is also easily accessible by public transportation, making it a convenient option for travelers of all types.
+Station RFR Ezzouhour 2 is a transportation service located in ezzouhour, Tunisia. It is open 24 hours a day and offers a variety of services, including train transportation. The station is located at (51.594978437327, 4.782896218337).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1990,53 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for a reliable transportation service, Station RFR Ezzouhour 2 is the place to go. Located at Station Train, 2, it's a top-rated destination with a 4.8 rating. Open 24 hours a day, it's a must-visit spot for anyone needing transportation services. For more details, visit their website at http://rfr.tn/.</t>
+          <t>Station RFR Ezzouhour 2 is a transportation service located in ezzouhour, Tunisia. It is open 24 hours a day and offers a variety of services, including train transportation. The station is located at (51.594978437327, 4.782896218337).</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where in Ezzouhour can you find a highly-rated transportation service that is open around the clock?</t>
+          <t>Day Plan:
+Morning: Explore Ezzouhour, visiting local markets and shops for unique souvenirs and local crafts.
+Mid-Morning: Stop for a refreshing break at the charming Ezzouhour Cafe, indulging in delicious culinary treats and aromatic coffee.
+Midday: Discover the diverse culinary scene of Ezzouhour by trying local cuisine at the renowned Buona Pesca Fishes Shop, known for its fresh seafood and delectable dishes.
+Afternoon: Visit the PIZZA YO Pizzeria for a satisfying lunch, enjoying a wide range of pizzas and relishing the flavors of authentic Italian cuisine.
+Evening: Take a romantic stroll through the vibrant streets of Ezzouhour, soaking in the lively atmosphere and admiring the city's architectural beauty.
+Night: Relax with a soothing massage at a local spa, treating yourself to a rejuvenating experience that will leave you feeling refreshed and revitalized.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Ezzouhour | Ezzouhour, P15, Maial Bal Abbas**
+Nestled in the heart of Ezzouhour, this charming cafe offers a tranquil haven for locals and visitors alike. With its cozy ambiance and friendly staff, it's the perfect spot to relax with a cup of coffee or indulge in delectable culinary treats.
+Ezzouhour boasts an impressive rating of 4.7 stars, a testament to its exceptional offerings and impeccable service. As you explore this beloved cafe, be sure to savor the flavors of its signature dishes and immerse yourself in the vibrant atmosphere. Located at (37.177283, 33.223278), Ezzouhour is easily accessible and ready to welcome you for an unforgettable culinary experience.
+MIKA is an ice cream store located in Cite Ezzouhour, Tunisia. The store offers a variety of ice cream flavors and toppings, and is open 24 hours a day. MIKA has received positive reviews from customers, who praise the quality of the ice cream and the friendly service. The store is located at the coordinates (35.1638567, 8.8327558).
+**Buona Pesca Fishes Shop** is a popular fish and chips restaurant, located in the heart of Ezzouhour, known for its extensive selection of fresh seafood and delicious dishes. Situated at coordinates (36.7932205, 10.1401796), the restaurant offers a wide variety of seafood options, including grilled, fried, and steamed fish. Its convenient location and friendly atmosphere make it a popular destination for locals and tourists alike.
+PIZZA YO is a Pizzeria located in Rue Ezzouhour, Tunisia, offering a wide range of pizzas to satisfy your cravings. With a perfect 5.0 rating based on 4 reviews, it has become a favorite spot among locals and visitors alike. Its exact location is at (36.7932205, 10.1401796) and can be easily found on Google Maps by its place_id: ChIJE8hTXPfL4hIRJB5tuMzGuhQ.
+Gare ferroviaire Ezzouhour is a train station located in Ezzouhour, Tunisia. It has a rating of 4.0 out of 2 reviews. It is a main category of train station. It offers train services. It is located at coordinates (-27.4190244, 153.0254209) and has an address of Gare ferroviaire Ezzouhour, 4031.
+Station RFR Ezzouhour 2 is a highly rated (4.8/5) transport service located in ezzouhour, Tunisia. It offers 24/7 accessibility and is conveniently positioned at coordinates (51.594978437327, 4.782896218337).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1733,12 +2142,51 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're looking for a reliable transportation service in ezzouhour, check out Station RFR Ezzouhour 2 located at Station Train, 2. This top-rated destination is perfect for transportation lovers and offers a range of services to choose from. With a rating of 4.8, it's a must-visit spot. It's open 24 hours a day, 7 days a week, so you can get there anytime you need. To get there, use these GPS coordinates: 51.594978437327, 4.782896218337.</t>
+          <t>Station RFR Ezzouhour 2 is a highly rated (4.8/5) transport service located in ezzouhour, Tunisia. It offers 24/7 accessibility and is conveniently positioned at coordinates (51.594978437327, 4.782896218337).</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated transportation service in Ezzouhour that is open around the clock, offering a variety of options and conveniently located at Station Train, 2?</t>
+          <t>Day Plan:
+Morning: Take a leisurely stroll through the vibrant Cite Ezzouhour market, immersing yourself in the local culture and exploring the diverse array of goods on offer.
+Mid-Morning: Visit the stunning Cafe ezzouhour for a delightful cup of coffee and a slice of traditional Tunisian pastry, enjoying the cozy ambiance and friendly service.
+Midday: Indulge in a flavorful seafood lunch at Buona Pesca Fishes Shop, savoring the freshness of their grilled fish while relishing the lively atmosphere of the restaurant.
+Afternoon: Spend the afternoon exploring the historic Gare ferroviaire Ezzouhour, marveling at its architectural beauty and learning about its significance as a transportation hub connecting various destinations.
+Evening: Head over to PIZZA YO for an authentic and delicious pizza dinner, enjoying the perfect blend of flavors and textures in a warm and inviting setting.
+Night: Take a relaxing walk along the picturesque Rue Ezzouhour, soaking in the beautiful views and the vibrant energy of the surrounding area as the day fades into night.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe ezzouhour is located in ezzouhour, Tunisia and is a Cafe with a 5.0 rating. It's located at the coordinates (36.7932205, 10.1401796).
+MIKA is an ice cream store located in Cite Ezzouhour, Tunisia. The store offers a variety of ice cream flavors and toppings, and is open 24 hours a day. MIKA has received positive reviews from customers, who praise the quality of the ice cream and the friendly service. The store is located at the coordinates (35.1638567, 8.8327558).
+**Buona Pesca Fishes Shop** is a popular fish and chips restaurant, located in the heart of Ezzouhour, known for its extensive selection of fresh seafood and delicious dishes. Situated at coordinates (36.7932205, 10.1401796), the restaurant offers a wide variety of seafood options, including grilled, fried, and steamed fish. Its convenient location and friendly atmosphere make it a popular destination for locals and tourists alike.
+PIZZA YO is a Pizzeria located in Rue Ezzouhour, Tunisia, offering a wide range of pizzas to satisfy your cravings. With a perfect 5.0 rating based on 4 reviews, it has become a favorite spot among locals and visitors alike. Its exact location is at (36.7932205, 10.1401796) and can be easily found on Google Maps by its place_id: ChIJE8hTXPfL4hIRJB5tuMzGuhQ.
+Gare ferroviaire Ezzouhour is a railway station located in Ezzouhour, Tunisia. It offers rail services to various destinations in the country and provides a convenient transportation option for both locals and visitors. The station is situated at coordinates (-27.4190244, 153.0254209) and is rated 4.0 based on reviews from travelers.
+Station RFR Ezzouhour 2 is a transportation service located in ezzouhour, Tunisia. It is open 24 hours a day and offers a variety of services, including train transportation. The station is located at (51.594978437327, 4.782896218337).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1832,12 +2280,59 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in ezzouhour and looking for a Gare, check out Gare ferroviaire Ezzouhour located at Gare ferroviaire Ezzouhour, 4031. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: -27.4190244, 153.0254209. For more details, visit their link at https://www.google.com/maps/place/Gare+ferroviaire+Ezzouhour/data=!4m7!3m6!1s0x12fdf5275aa00e07:0xbacd3ba9d25bbaca!8m2!3d35.7806736!4d10.575242!16s%2Fg%2F1tj93n6g!19sChIJBw6gWif1_RIRyrpb0qk7zbo?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Gare ferroviaire Ezzouhour is a railway station located in Ezzouhour, Tunisia. It offers rail services to various destinations in the country and provides a convenient transportation option for both locals and visitors. The station is situated at coordinates (-27.4190244, 153.0254209) and is rated 4.0 based on reviews from travelers.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Gare with a range of options at the coordinates -27.4190244, 153.0254209 in Ezzouhour?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the charming cafe Ezzouhour, known for its cozy ambiance and delectable culinary offerings.
+**Mid-Morning:**
+- Visit Buona Pesca Fishes Shop, a popular seafood restaurant offering a wide selection of fresh and delicious dishes.
+**Midday:**
+- Try local cuisine at PIZZA YO, a pizzeria praised for its exceptional pizzas and perfect 5.0 rating.
+**Afternoon:**
+- Enjoy scenic views at the scenic spot MIKA Ice Cream Store, offering a variety of ice cream flavors and toppings 24 hours a day.
+**Evening:**
+- Engage in outdoor activities at the nearby park or beach, indulging in recreational activities or simply relaxing amidst nature.
+**Night:**
+- Experience cultural immersion at the Gare ferroviaire Ezzouhour, a railway station offering a glimpse into the local transportation system and surrounding attractions.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Ezzouhour | Ezzouhour, P15, Maial Bal Abbas**
+Nestled in the heart of Ezzouhour, this charming cafe offers a tranquil haven for locals and visitors alike. With its cozy ambiance and friendly staff, it's the perfect spot to relax with a cup of coffee or indulge in delectable culinary treats.
+Ezzouhour boasts an impressive rating of 4.7 stars, a testament to its exceptional offerings and impeccable service. As you explore this beloved cafe, be sure to savor the flavors of its signature dishes and immerse yourself in the vibrant atmosphere. Located at (37.177283, 33.223278), Ezzouhour is easily accessible and ready to welcome you for an unforgettable culinary experience.
+MIKA is an ice cream store located in Cite Ezzouhour, Tunisia. The store offers a variety of ice cream flavors and toppings, and is open 24 hours a day. MIKA has received positive reviews from customers, who praise the quality of the ice cream and the friendly service. The store is located at the coordinates (35.1638567, 8.8327558).
+**Buona Pesca Fishes Shop** is a popular fish and chips restaurant, located in the heart of Ezzouhour, known for its extensive selection of fresh seafood and delicious dishes. Situated at coordinates (36.7932205, 10.1401796), the restaurant offers a wide variety of seafood options, including grilled, fried, and steamed fish. Its convenient location and friendly atmosphere make it a popular destination for locals and tourists alike.
+PIZZA YO is a Pizzeria located in Rue Ezzouhour, Tunisia, offering a wide range of pizzas to satisfy your cravings. With a perfect 5.0 rating based on 4 reviews, it has become a favorite spot among locals and visitors alike. Its exact location is at (36.7932205, 10.1401796) and can be easily found on Google Maps by its place_id: ChIJE8hTXPfL4hIRJB5tuMzGuhQ.
+Gare ferroviaire Ezzouhour is a railway station located in ezzouhour, Tunisia. It offers a variety of services to its passengers, including ticketing, baggage handling, and food and beverage options. The station is also conveniently located near several major attractions, such as the Medina of Tunis and the Carthage archaeological site. Visitors to the station will find a clean and well-maintained facility with friendly and helpful staff. The station is also easily accessible by public transportation, making it a convenient option for travelers of all types.
+Station RFR Ezzouhour 2 is a highly rated (4.8/5) transport service located in ezzouhour, Tunisia. It offers 24/7 accessibility and is conveniently positioned at coordinates (51.594978437327, 4.782896218337).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
